--- a/biology/Botanique/Tiarelle/Tiarelle.xlsx
+++ b/biology/Botanique/Tiarelle/Tiarelle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tiarella
 La Tiarelle (Tiarella) est un genre de plantes à fleurs de la famille des Saxifragaceae présent en Asie et en Amérique du Nord.
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de genre Tiarella est composé du préfixe tiar- (du grec τιάρα / tiára, « tiare ; sorte de turban, en forme de cône »), et du suffixe latin -ella, petite, littéralement « petite tiare », sans doute en référence à la forme conique de l'inflorescence ou « fait allusion à la forme du pistil ou à celle du fruit capsuleux. »[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de genre Tiarella est composé du préfixe tiar- (du grec τιάρα / tiára, « tiare ; sorte de turban, en forme de cône »), et du suffixe latin -ella, petite, littéralement « petite tiare », sans doute en référence à la forme conique de l'inflorescence ou « fait allusion à la forme du pistil ou à celle du fruit capsuleux. ».
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Plant List            (8 octobre 2021)[4] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Plant List            (8 octobre 2021) :
 Tiarella californica (Kellogg) Rydb.
 Tiarella cordifolia L.
 Tiarella laciniata Hook.
